--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -79,7 +79,7 @@
     <t>商品購入</t>
   </si>
   <si>
-    <t>マイアカウント</t>
+    <t>マイページ</t>
   </si>
   <si>
     <t>基本情報</t>

--- a/機能一覧.xlsx
+++ b/機能一覧.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>大分類→小分類→機能　の順に画面遷移</t>
   </si>
@@ -61,9 +61,6 @@
     <t>商品詳細</t>
   </si>
   <si>
-    <t>ヘッダーメニュー</t>
-  </si>
-  <si>
     <t>カート</t>
   </si>
   <si>
@@ -95,6 +92,12 @@
   </si>
   <si>
     <t>購入履歴表示</t>
+  </si>
+  <si>
+    <t>注文詳細表示</t>
+  </si>
+  <si>
+    <t>注文キャンセル</t>
   </si>
   <si>
     <t>支払い情報</t>
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -227,6 +230,9 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
@@ -519,14 +525,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
@@ -542,8 +550,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -551,85 +559,83 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
       <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="6"/>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
@@ -643,23 +649,23 @@
     </row>
     <row r="25">
       <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="6"/>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D27" s="4" t="s">
         <v>35</v>
       </c>
@@ -672,25 +678,33 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="30">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
+  <mergeCells count="12">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B11:B17"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C27:C30"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
